--- a/X2110-Camera/100x/beads-5/all-beads5-red.xlsx
+++ b/X2110-Camera/100x/beads-5/all-beads5-red.xlsx
@@ -24,12 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>centers</t>
   </si>
   <si>
     <t>sigmas</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Err AVG</t>
+  </si>
+  <si>
+    <t>Disper</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>ERR Width</t>
   </si>
 </sst>
 </file>
@@ -50,12 +71,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -85,11 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89C936-C545-4B26-B762-B58BACD84C78}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,8 +465,11 @@
       <c r="C2">
         <v>38.665470576572673</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -441,8 +479,11 @@
       <c r="C3">
         <v>38.906973340775359</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -452,8 +493,11 @@
       <c r="C4">
         <v>37.817798080703888</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -463,8 +507,11 @@
       <c r="C5">
         <v>35.589880941509001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -474,8 +521,11 @@
       <c r="C6">
         <v>21.376431013782661</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -485,8 +535,11 @@
       <c r="C7">
         <v>22.38055503929256</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -496,8 +549,11 @@
       <c r="C8">
         <v>21.452447834122729</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -507,8 +563,11 @@
       <c r="C9">
         <v>30.722525491585198</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -518,8 +577,11 @@
       <c r="C10">
         <v>35.763337406859939</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -529,8 +591,11 @@
       <c r="C11">
         <v>31.29386958024887</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -540,8 +605,11 @@
       <c r="C12">
         <v>34.421767073951983</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -551,8 +619,11 @@
       <c r="C13">
         <v>30.086939884903931</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -562,8 +633,11 @@
       <c r="C14">
         <v>34.709604900781969</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -573,41 +647,92 @@
       <c r="C15">
         <v>35.840013534444083</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
         <f>AVERAGE(B2:B15)</f>
         <v>682.61832694709778</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <f>AVERAGE(C2:C15)</f>
         <v>32.073401049966776</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <f>_xlfn.STDEV.P(B2:B15)</f>
         <v>1.646584689405862</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <f>_xlfn.STDEV.P(C2:C15)</f>
         <v>5.9960930948237632</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>B17/SQRT(14)</f>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f>B19/SQRT(14)</f>
         <v>0.44006826900459428</v>
       </c>
-      <c r="C18">
-        <f>C17/SQRT(14)</f>
+      <c r="C20">
+        <f>C19/SQRT(14)</f>
         <v>1.6025232871451112</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>B17/B16*100</f>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f>B19/B18</f>
+        <v>2.4121600965065662E-3</v>
+      </c>
+      <c r="C22">
+        <f>C19/C18</f>
+        <v>0.18694908860717702</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f>B22*100</f>
         <v>0.24121600965065662</v>
+      </c>
+      <c r="C23">
+        <f>C22*100</f>
+        <v>18.694908860717703</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
